--- a/Ausgabe/Belege.xlsx
+++ b/Ausgabe/Belege.xlsx
@@ -14,118 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Tankstelle</x:t>
   </x:si>
   <x:si>
-    <x:t>Adresse</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tankdatum</x:t>
   </x:si>
   <x:si>
-    <x:t>Tankzeit</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kraftstoff</x:t>
   </x:si>
   <x:si>
     <x:t>Liter</x:t>
   </x:si>
   <x:si>
+    <x:t>kWh</x:t>
+  </x:si>
+  <x:si>
     <x:t>Preis/Liter</x:t>
   </x:si>
   <x:si>
-    <x:t>Tank Brutto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ladedatum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Startzeit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endzeit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kWh</x:t>
-  </x:si>
-  <x:si>
     <x:t>Preis/kWh</x:t>
   </x:si>
   <x:si>
-    <x:t>Ladedauer</x:t>
+    <x:t>KM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kennzeichen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waschkarte</x:t>
   </x:si>
   <x:si>
     <x:t>Kosten</x:t>
   </x:si>
   <x:si>
-    <x:t>KM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kennzeichen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waschkarte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waschkosten</x:t>
-  </x:si>
-  <x:si>
     <x:t>ENBW</x:t>
   </x:si>
   <x:si>
-    <x:t>Ladeart Kostenart
-0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01.04.2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mo-Do 8</x:t>
+    <x:t>01.04.2025 - 28.04.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elektro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79.207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PBSN23</x:t>
   </x:si>
   <x:si>
     <x:t>Nein</x:t>
   </x:si>
   <x:si>
+    <x:t>49,17 €</x:t>
+  </x:si>
+  <x:si>
     <x:t>Aral</x:t>
   </x:si>
   <x:si>
     <x:t>08.04.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>16:08</x:t>
-  </x:si>
-  <x:si>
     <x:t>Super</x:t>
   </x:si>
   <x:si>
+    <x:t>1,729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PBSN23E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73,71 EUR</x:t>
+  </x:si>
+  <x:si>
     <x:t>HEM</x:t>
   </x:si>
   <x:si>
     <x:t>03.05.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>13:33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41.77</x:t>
+    <x:t>41,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70,55 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>27.04.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>13:42</x:t>
+    <x:t>Super E10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73,17 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -134,28 +130,40 @@
     <x:t>16.04.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>12:51</x:t>
+    <x:t>17099</x:t>
   </x:si>
   <x:si>
     <x:t>Ja</x:t>
   </x:si>
   <x:si>
+    <x:t>17,50 EUR</x:t>
+  </x:si>
+  <x:si>
     <x:t>15.04.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>13:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36.78</x:t>
+    <x:t>36,78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,75 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>29.03.2025</x:t>
   </x:si>
   <x:si>
-    <x:t>17:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43.93</x:t>
+    <x:t>43,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73,32 EUR</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -206,13 +214,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -510,13 +514,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S8"/>
+  <x:dimension ref="A1:K8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:19">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -550,187 +554,187 @@
       <x:c r="K1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:19">
-      <x:c r="A2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="J4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="J5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:19">
-      <x:c r="A3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:19">
-      <x:c r="A4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:19">
-      <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:19">
-      <x:c r="A6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:19">
-      <x:c r="A7" s="0" t="s">
-        <x:v>31</x:v>
+      <x:c r="B7" s="0" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:19">
+    <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="R8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Ausgabe/Belege.xlsx
+++ b/Ausgabe/Belege.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Tankstelle</x:t>
   </x:si>
@@ -61,13 +61,16 @@
     <x:t>79.207</x:t>
   </x:si>
   <x:si>
-    <x:t>PBSN23</x:t>
+    <x:t>0.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PBSN23E</x:t>
   </x:si>
   <x:si>
     <x:t>Nein</x:t>
   </x:si>
   <x:si>
-    <x:t>49,17 €</x:t>
+    <x:t>58.91 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>Aral</x:t>
@@ -79,16 +82,16 @@
     <x:t>Super</x:t>
   </x:si>
   <x:si>
+    <x:t>42,63</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,729</x:t>
   </x:si>
   <x:si>
     <x:t>16488</x:t>
   </x:si>
   <x:si>
-    <x:t>PBSN23E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73,71 EUR</x:t>
+    <x:t>73.71 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>HEM</x:t>
@@ -106,7 +109,7 @@
     <x:t>18243</x:t>
   </x:si>
   <x:si>
-    <x:t>70,55 EUR</x:t>
+    <x:t>70.55 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>27.04.2025</x:t>
@@ -115,13 +118,16 @@
     <x:t>Super E10</x:t>
   </x:si>
   <x:si>
+    <x:t>43,84</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,669</x:t>
   </x:si>
   <x:si>
     <x:t>17704</x:t>
   </x:si>
   <x:si>
-    <x:t>73,17 EUR</x:t>
+    <x:t>73.17 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -136,7 +142,7 @@
     <x:t>Ja</x:t>
   </x:si>
   <x:si>
-    <x:t>17,50 EUR</x:t>
+    <x:t>17.50 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>15.04.2025</x:t>
@@ -151,7 +157,7 @@
     <x:t>16997</x:t>
   </x:si>
   <x:si>
-    <x:t>61,75 EUR</x:t>
+    <x:t>61.75 EUR</x:t>
   </x:si>
   <x:si>
     <x:t>29.03.2025</x:t>
@@ -163,7 +169,7 @@
     <x:t>15787</x:t>
   </x:si>
   <x:si>
-    <x:t>73,32 EUR</x:t>
+    <x:t>73.32 EUR</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -568,173 +574,182 @@
       <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
